--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM_test\drawing_figures\gcam-sandbox\input\gcamdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\ManurePyrolysisIAM\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEEA33-C5AD-4698-8600-EC853EB970A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BB9963-779B-4828-A10A-CA684D0F9F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pyrolysis-nofert" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>hrs/day</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>(4 years from 2024)</t>
+  </si>
+  <si>
+    <t>Sequestered C Ratio (Mg C/Mg Manure)</t>
   </si>
 </sst>
 </file>
@@ -512,16 +515,16 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>3</v>
       </c>
@@ -529,7 +532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>24</v>
       </c>
@@ -537,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>330</v>
       </c>
@@ -548,7 +551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.31819999999999998</v>
       </c>
@@ -559,7 +562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>0.35</v>
       </c>
@@ -570,7 +573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>0.35</v>
       </c>
@@ -581,7 +584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>0.35</v>
       </c>
@@ -592,7 +595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>0.26</v>
       </c>
@@ -603,7 +606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -614,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>1000</v>
       </c>
@@ -622,10 +625,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -633,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -662,7 +665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -703,7 +706,7 @@
         <v>805.8147593031315</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -744,7 +747,7 @@
         <v>732.60073260073261</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -785,7 +788,7 @@
         <v>732.60073260073261</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -826,7 +829,7 @@
         <v>732.60073260073261</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -867,12 +870,12 @@
         <v>986.19329388560163</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -889,7 +892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -907,7 +910,7 @@
         <v>30.425531914893618</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -925,7 +928,7 @@
         <v>58.111111111111114</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -943,7 +946,7 @@
         <v>27.312925170068027</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -961,7 +964,7 @@
         <v>27.312925170068027</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -980,20 +983,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>24</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>330</v>
       </c>
@@ -1020,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <f>1/2.1815</f>
         <v>0.45840018336007332</v>
@@ -1032,7 +1035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <f>1/2.1052</f>
         <v>0.47501425042751283</v>
@@ -1044,7 +1047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f>1/2.055</f>
         <v>0.48661800486618001</v>
@@ -1056,7 +1059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f>1/2.136</f>
         <v>0.46816479400749061</v>
@@ -1068,7 +1071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <f>1/2.1276</f>
         <v>0.47001316036849028</v>
@@ -1080,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>1000</v>
       </c>
@@ -1088,10 +1091,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1159,7 @@
       </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1193,7 @@
       </c>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1227,7 @@
       </c>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1261,7 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1292,12 +1295,12 @@
       </c>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -1310,11 +1313,14 @@
       <c r="E20" t="s">
         <v>33</v>
       </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1331,8 +1337,12 @@
         <f>(B21+C21)/(D21*1000000)</f>
         <v>30.425531914893618</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <f>(C21)/(D21*1000000*100)</f>
+        <v>0.13085106382978723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1349,8 +1359,12 @@
         <f t="shared" ref="E22:E24" si="0">(B22+C22)/(D22*1000000)</f>
         <v>58.111111111111114</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="3">
+        <f t="shared" ref="F22:F24" si="1">(C22)/(D22*1000000*100)</f>
+        <v>0.14301587301587301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1381,12 @@
         <f t="shared" si="0"/>
         <v>27.312925170068027</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11326530612244898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1385,8 +1403,12 @@
         <f t="shared" si="0"/>
         <v>27.312925170068027</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11326530612244898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1405,13 +1427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248186C2-819E-40A3-BDA6-AECDD5B5B57C}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>39</v>
       </c>
@@ -1485,7 +1507,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>45</v>
       </c>
@@ -1550,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1643,7 +1665,7 @@
         <v>2.5889995662654433</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1736,7 +1758,7 @@
         <v>0.45359192400983966</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1851,7 @@
         <v>3.1009994804902044</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1922,7 +1944,7 @@
         <v>0.30399994907095201</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2015,19 +2037,19 @@
         <v>1.3809997686413971</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G9">
         <f>-$C3*EXP(-$D3*G$1-$E3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G10">
         <f>EXP(-$D3*G$1-$E3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G11">
         <f>-$D3*G$1-$E3</f>
         <v>-2521.75</v>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\ManurePyrolysisIAM\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BB9963-779B-4828-A10A-CA684D0F9F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1DF9DD-C05F-43F0-B53B-6726988F7BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1148" yWindow="60" windowWidth="20790" windowHeight="8475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pyrolysis-nofert" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -219,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -229,6 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1311,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>46</v>
@@ -1333,11 +1335,11 @@
       <c r="D21">
         <v>94</v>
       </c>
-      <c r="E21" s="7">
-        <f>(B21+C21)/(D21*1000000)</f>
-        <v>30.425531914893618</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="9">
+        <f>(B21)/(D21*1000000*100)</f>
+        <v>0.17340425531914894</v>
+      </c>
+      <c r="F21" s="9">
         <f>(C21)/(D21*1000000*100)</f>
         <v>0.13085106382978723</v>
       </c>
@@ -1355,11 +1357,11 @@
       <c r="D22">
         <v>63</v>
       </c>
-      <c r="E22" s="7">
-        <f t="shared" ref="E22:E24" si="0">(B22+C22)/(D22*1000000)</f>
-        <v>58.111111111111114</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="9">
+        <f t="shared" ref="E22:E25" si="0">(B22)/(D22*1000000*100)</f>
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" ref="F22:F24" si="1">(C22)/(D22*1000000*100)</f>
         <v>0.14301587301587301</v>
       </c>
@@ -1377,11 +1379,11 @@
       <c r="D23">
         <v>294</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>27.312925170068027</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1598639455782313</v>
+      </c>
+      <c r="F23" s="9">
         <f t="shared" si="1"/>
         <v>0.11326530612244898</v>
       </c>
@@ -1399,11 +1401,11 @@
       <c r="D24">
         <v>294</v>
       </c>
-      <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>27.312925170068027</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1598639455782313</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="1"/>
         <v>0.11326530612244898</v>
       </c>
@@ -1415,7 +1417,10 @@
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\ManurePyrolysisIAM\gcam\input\biochar_land_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1DF9DD-C05F-43F0-B53B-6726988F7BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25F245-6920-4EFF-B232-E03D709A6076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1148" yWindow="60" windowWidth="20790" windowHeight="8475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pyrolysis-nofert" sheetId="1" r:id="rId1"/>
-    <sheet name="biochar_land" sheetId="2" r:id="rId2"/>
-    <sheet name="gompertz" sheetId="3" r:id="rId3"/>
+    <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
+    <sheet name="gompertz" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
-  <si>
-    <t>hrs/day</t>
-  </si>
-  <si>
-    <t>days/year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>CAPEX</t>
   </si>
@@ -55,24 +48,15 @@
     <t>TOTAL COST</t>
   </si>
   <si>
-    <t>CONVERTED COST</t>
-  </si>
-  <si>
     <t>TO EUAW</t>
   </si>
   <si>
-    <t>Production estimates (kg)</t>
-  </si>
-  <si>
     <t>kg per ton</t>
   </si>
   <si>
     <t>Bora, R. R. et al. Techno-Economic Feasibility and Spatial Analysis of Thermochemical Conversion Pathways for Regional Poultry Waste Valorization. ACS Sustainable Chem. Eng. 8, 5763â5775 (2020).</t>
   </si>
   <si>
-    <t>source 1: Bridgwater, A. V., Toft, A. J. &amp; Brammer, J. G. A techno-economic comparison of power production by biomass fast pyrolysis with gasification and combustion. Renewable and Sustainable Energy Reviews 6, 181â246 (2002).</t>
-  </si>
-  <si>
     <t>Beef</t>
   </si>
   <si>
@@ -106,15 +90,9 @@
     <t>Baniasadi, M. et al. Waste to energy valorization of poultry litter by slow pyrolysis. Renewable Energy 90, 458â468 (2016).</t>
   </si>
   <si>
-    <t>GJ/kg feedstock</t>
-  </si>
-  <si>
     <t>tons feedstock/hr</t>
   </si>
   <si>
-    <t>Unit cost  ($1975/GJ)</t>
-  </si>
-  <si>
     <t>beef biooil yield</t>
   </si>
   <si>
@@ -139,18 +117,9 @@
     <t>Manure Supply</t>
   </si>
   <si>
-    <t>Equivalency Ratio (Mg C/Mg DM)</t>
-  </si>
-  <si>
     <t>Woolf, D., Amonette, J. E., Street-Perrott, F. A., Lehmann, J. &amp; Joseph, S. Sustainable biochar to mitigate global climate change. Nat Commun 1, 56 (2010).</t>
   </si>
   <si>
-    <t>Yield (GJ/kg feedstock)</t>
-  </si>
-  <si>
-    <t>Yield (kg/GJ)</t>
-  </si>
-  <si>
     <t>same as beef/dairy</t>
   </si>
   <si>
@@ -179,20 +148,101 @@
   </si>
   <si>
     <t>Sequestered C Ratio (Mg C/Mg Manure)</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>days per year</t>
+  </si>
+  <si>
+    <t>hours per day</t>
+  </si>
+  <si>
+    <t>project lifetime (years)</t>
+  </si>
+  <si>
+    <t>Pre-treatment plant cost (2007$)</t>
+  </si>
+  <si>
+    <t>Pyrolysis plant cost (2007$)</t>
+  </si>
+  <si>
+    <t>1975$/2007$</t>
+  </si>
+  <si>
+    <t>yearly opex costs as fraction of capex costs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">McCarl, B.A., Peacocke, C., Chrisman, R., Kung, C.C. and Sands, R.D., 2012. Economics of biochar production, utilization and greenhouse gas offsets. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Biochar for environmental management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (pp. 373-390). Routledge.</t>
+    </r>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>Production estimates (kg per year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,10 +267,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,9 +281,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,470 +563,503 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>365</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3600000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10600000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>1/2.1815</f>
+        <v>0.45840018336007332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>1/2.1052</f>
+        <v>0.47501425042751283</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f>1/2.055</f>
+        <v>0.48661800486618001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f>1/2.136</f>
+        <v>0.46816479400749061</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f>1/2.1276</f>
+        <v>0.47001316036849028</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="10">
+        <f>(A$8+A$9)*A$10</f>
+        <v>3692000</v>
+      </c>
+      <c r="C22" s="10">
+        <f>0.09*B22</f>
+        <v>332280</v>
+      </c>
+      <c r="D22" s="4">
+        <f>-PV(A$11,A$5,C22)+B22</f>
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E22" s="4">
+        <f>-PMT(A$11,A$5,D22)</f>
+        <v>826560.45590642723</v>
+      </c>
+      <c r="F22">
+        <f>A$3*A$4*A$6*A$7*A13*A$18</f>
+        <v>32124684.849873938</v>
+      </c>
+      <c r="G22" s="5">
+        <f>E22/F22</f>
+        <v>2.5729760767121451E-2</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="10">
+        <f t="shared" ref="B23:B26" si="0">(A$8+A$9)*A$10</f>
+        <v>3692000</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23:C26" si="1">0.09*B23</f>
+        <v>332280</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:D26" si="2">-PV(A$11,A$5,C23)+B23</f>
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E23" s="4">
+        <f>-PMT(A$11,A$5,D23)</f>
+        <v>826560.45590642723</v>
+      </c>
+      <c r="F23">
+        <f>A$3*A$4*A$6*A$7*A14*A$18</f>
+        <v>33288998.6699601</v>
+      </c>
+      <c r="G23" s="5">
+        <f>E23/F23</f>
+        <v>2.4829838352942502E-2</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="0"/>
+        <v>3692000</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="1"/>
+        <v>332280</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="2"/>
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24:E26" si="3">-PMT(A$11,A$5,D24)</f>
+        <v>826560.45590642723</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F26" si="4">A$3*A$4*A$6*A$7*A15*A$18</f>
+        <v>34102189.781021893</v>
+      </c>
+      <c r="G24" s="5">
+        <f>E24/F24</f>
+        <v>2.4237753094858851E-2</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10">
+        <f t="shared" si="0"/>
+        <v>3692000</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="1"/>
+        <v>332280</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="2"/>
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="3"/>
+        <v>826560.45590642723</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>32808988.764044944</v>
+      </c>
+      <c r="G25" s="5">
+        <f>E25/F25</f>
+        <v>2.519310978618905E-2</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" si="0"/>
+        <v>3692000</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="1"/>
+        <v>332280</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="2"/>
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="3"/>
+        <v>826560.45590642723</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>32938522.278623801</v>
+      </c>
+      <c r="G26" s="5">
+        <f>E26/F26</f>
+        <v>2.5094035758939991E-2</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>330</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="7">
+        <v>1630000000</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1230000000</v>
+      </c>
+      <c r="D30">
+        <v>94</v>
+      </c>
+      <c r="E30" s="9">
+        <f>(B30)/(D30*1000000*100)</f>
+        <v>0.17340425531914894</v>
+      </c>
+      <c r="F30" s="9">
+        <f>(C30)/(D30*1000000*100)</f>
+        <v>0.13085106382978723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2760000000</v>
+      </c>
+      <c r="C31" s="7">
+        <v>901000000</v>
+      </c>
+      <c r="D31">
+        <v>63</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" ref="E31:E34" si="5">(B31)/(D31*1000000*100)</f>
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" ref="F31:F33" si="6">(C31)/(D31*1000000*100)</f>
+        <v>0.14301587301587301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4700000000</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3330000000</v>
+      </c>
+      <c r="D32">
+        <v>294</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="5"/>
+        <v>0.1598639455782313</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11326530612244898</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4700000000</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3330000000</v>
+      </c>
+      <c r="D33">
+        <v>294</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="5"/>
+        <v>0.1598639455782313</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11326530612244898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C14">
-        <f>0.09*B14+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D14" s="4">
-        <f>-PV(7%,30,C14)+B14</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E14" s="4">
-        <f>D14*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F14" s="4">
-        <f>-PMT(7%, 30,E14)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G14">
-        <f>A$1*A$2*A$3*A4*A$10</f>
-        <v>7560432</v>
-      </c>
-      <c r="H14" s="5">
-        <f>F14/G14</f>
-        <v>4.5529845618269504E-2</v>
-      </c>
-      <c r="I14" s="8">
-        <f>A4*$A$9</f>
-        <v>1.2409799999999998E-3</v>
-      </c>
-      <c r="J14">
-        <f>1/I14</f>
-        <v>805.8147593031315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C15">
-        <f>0.09*B15+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D15" s="4">
-        <f>-PV(7%,30,C15)+B15</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E15" s="4">
-        <f>D15*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F15" s="4">
-        <f>-PMT(7%, 30,E15)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G15">
-        <f>A$1*A$2*A$3*A5*A$10</f>
-        <v>8316000</v>
-      </c>
-      <c r="H15" s="5">
-        <f>F15/G15</f>
-        <v>4.1393133930666737E-2</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" ref="I15:I18" si="0">A5*$A$9</f>
-        <v>1.3649999999999999E-3</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ref="J15:J18" si="1">1/I15</f>
-        <v>732.60073260073261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C16">
-        <f>0.09*B16+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D16" s="4">
-        <f>-PV(7%,30,C16)+B16</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E16" s="4">
-        <f>D16*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F16" s="4">
-        <f>-PMT(7%, 30,E16)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G16">
-        <f>A$1*A$2*A$3*A6*A$10</f>
-        <v>8316000</v>
-      </c>
-      <c r="H16" s="5">
-        <f>F16/G16</f>
-        <v>4.1393133930666737E-2</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3649999999999999E-3</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>732.60073260073261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C17">
-        <f>0.09*B17+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D17" s="4">
-        <f>-PV(7%,30,C17)+B17</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E17" s="4">
-        <f>D17*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F17" s="4">
-        <f>-PMT(7%, 30,E17)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G17">
-        <f>A$1*A$2*A$3*A7*A$10</f>
-        <v>8316000</v>
-      </c>
-      <c r="H17" s="5">
-        <f>F17/G17</f>
-        <v>4.1393133930666737E-2</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3649999999999999E-3</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>732.60073260073261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C18">
-        <f>0.09*B18+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D18" s="4">
-        <f>-PV(7%,30,C18)+B18</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E18" s="4">
-        <f>D18*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F18" s="4">
-        <f>-PMT(7%, 30,E18)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G18">
-        <f>A$1*A$2*A$3*A8*A$10</f>
-        <v>6177600</v>
-      </c>
-      <c r="H18" s="5">
-        <f>F18/G18</f>
-        <v>5.5721526445128296E-2</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="0"/>
-        <v>1.0139999999999999E-3</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>986.19329388560163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1630000000</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1230000000</v>
-      </c>
-      <c r="D22">
-        <v>94</v>
-      </c>
-      <c r="E22" s="7">
-        <f>(B22+C22)/(D22*1000000)</f>
-        <v>30.425531914893618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="7">
-        <v>2760000000</v>
-      </c>
-      <c r="C23" s="7">
-        <v>901000000</v>
-      </c>
-      <c r="D23">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" ref="E23:E25" si="2">(B23+C23)/(D23*1000000)</f>
-        <v>58.111111111111114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4700000000</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3330000000</v>
-      </c>
-      <c r="D24">
-        <v>294</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="2"/>
-        <v>27.312925170068027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4700000000</v>
-      </c>
-      <c r="C25" s="7">
-        <v>3330000000</v>
-      </c>
-      <c r="D25">
-        <v>294</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="2"/>
-        <v>27.312925170068027</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="7"/>
+      <c r="E34" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -982,453 +1068,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>330</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <f>1/2.1815</f>
-        <v>0.45840018336007332</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <f>1/2.1052</f>
-        <v>0.47501425042751283</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <f>1/2.055</f>
-        <v>0.48661800486618001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <f>1/2.136</f>
-        <v>0.46816479400749061</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <f>1/2.1276</f>
-        <v>0.47001316036849028</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C13">
-        <f>0.09*B13+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D13" s="4">
-        <f>-PV(7%,30,C13)+B13</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E13" s="4">
-        <f>D13*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F13" s="4">
-        <f>-PMT(7%, 30,E13)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G13">
-        <f>A$1*A$2*A$3*A4*A$9</f>
-        <v>10891588.356635341</v>
-      </c>
-      <c r="H13" s="5">
-        <f>F13/G13</f>
-        <v>3.1604692584412321E-2</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C14">
-        <f>0.09*B14+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D14" s="4">
-        <f>-PV(7%,30,C14)+B14</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E14" s="4">
-        <f>D14*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F14" s="4">
-        <f>-PMT(7%, 30,E14)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G14">
-        <f>A$1*A$2*A$3*A5*A$9</f>
-        <v>11286338.590157704</v>
-      </c>
-      <c r="H14" s="5">
-        <f>F14/G14</f>
-        <v>3.0499288942793863E-2</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C15">
-        <f>0.09*B15+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D15" s="4">
-        <f>-PV(7%,30,C15)+B15</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E15" s="4">
-        <f>D15*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F15" s="4">
-        <f>-PMT(7%, 30,E15)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G15">
-        <f>A$1*A$2*A$3*A6*A$9</f>
-        <v>11562043.795620438</v>
-      </c>
-      <c r="H15" s="5">
-        <f>F15/G15</f>
-        <v>2.9772011579632048E-2</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C16">
-        <f>0.09*B16+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D16" s="4">
-        <f>-PV(7%,30,C16)+B16</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E16" s="4">
-        <f>D16*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F16" s="4">
-        <f>-PMT(7%, 30,E16)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G16">
-        <f>A$1*A$2*A$3*A7*A$9</f>
-        <v>11123595.505617978</v>
-      </c>
-      <c r="H16" s="5">
-        <f>F16/G16</f>
-        <v>3.094550692656645E-2</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f>40.8*($A$1*1000)^0.6194</f>
-        <v>5812.8493587040821</v>
-      </c>
-      <c r="C17">
-        <f>0.09*B17+(1.04*$A$1)^0.475/(1+0.07)</f>
-        <v>524.76094203599132</v>
-      </c>
-      <c r="D17" s="4">
-        <f>-PV(7%,30,C17)+B17</f>
-        <v>12324.629499924029</v>
-      </c>
-      <c r="E17" s="4">
-        <f>D17*1000/0.9233*0.32</f>
-        <v>4271505.9460367039</v>
-      </c>
-      <c r="F17" s="4">
-        <f>-PMT(7%, 30,E17)</f>
-        <v>344225.30176742456</v>
-      </c>
-      <c r="G17">
-        <f>A$1*A$2*A$3*A8*A$9</f>
-        <v>11167512.690355329</v>
-      </c>
-      <c r="H17" s="5">
-        <f>F17/G17</f>
-        <v>3.0823811112810292E-2</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1630000000</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1230000000</v>
-      </c>
-      <c r="D21">
-        <v>94</v>
-      </c>
-      <c r="E21" s="9">
-        <f>(B21)/(D21*1000000*100)</f>
-        <v>0.17340425531914894</v>
-      </c>
-      <c r="F21" s="9">
-        <f>(C21)/(D21*1000000*100)</f>
-        <v>0.13085106382978723</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="7">
-        <v>2760000000</v>
-      </c>
-      <c r="C22" s="7">
-        <v>901000000</v>
-      </c>
-      <c r="D22">
-        <v>63</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" ref="E22:E25" si="0">(B22)/(D22*1000000*100)</f>
-        <v>0.43809523809523809</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" ref="F22:F24" si="1">(C22)/(D22*1000000*100)</f>
-        <v>0.14301587301587301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4700000000</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3330000000</v>
-      </c>
-      <c r="D23">
-        <v>294</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1598639455782313</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="1"/>
-        <v>0.11326530612244898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4700000000</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3330000000</v>
-      </c>
-      <c r="D24">
-        <v>294</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1598639455782313</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="1"/>
-        <v>0.11326530612244898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248186C2-819E-40A3-BDA6-AECDD5B5B57C}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
@@ -1436,23 +1075,23 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G1">
         <v>1975</v>
@@ -1512,12 +1151,12 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1577,9 +1216,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2.589</v>
@@ -1670,9 +1309,9 @@
         <v>2.5889995662654433</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0.453592</v>
@@ -1763,9 +1402,9 @@
         <v>0.45359192400983966</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3.101</v>
@@ -1856,9 +1495,9 @@
         <v>3.1009994804902044</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.30399999999999999</v>
@@ -1949,9 +1588,9 @@
         <v>0.30399994907095201</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1.381</v>
@@ -2042,19 +1681,19 @@
         <v>1.3809997686413971</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G9">
         <f>-$C3*EXP(-$D3*G$1-$E3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G10">
         <f>EXP(-$D3*G$1-$E3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G11">
         <f>-$D3*G$1-$E3</f>
         <v>-2521.75</v>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25F245-6920-4EFF-B232-E03D709A6076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421749A2-B851-4DF0-9F25-9FA2E26AC9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Poultry</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Lima, I. M., McAloon, A. &amp; Boateng, A. A. Activated carbon from broiler litter: Process description and cost of production. Biomass and Bioenergy 32, 568â572 (2008).</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>same as beef/dairy</t>
-  </si>
-  <si>
-    <t>Unit cost  ($1975/kg)</t>
   </si>
   <si>
     <t>B_max</t>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>Production estimates (kg per year)</t>
+  </si>
+  <si>
+    <t>Unit cost  ($1975/kg input)</t>
+  </si>
+  <si>
+    <t>manure</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,15 +583,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,10 +610,10 @@
         <v>0.8</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,10 +632,10 @@
         <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,10 +651,10 @@
         <v>3600000</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,10 +662,10 @@
         <v>10600000</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>0.26</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>0.12</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>0.09</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -701,10 +701,10 @@
         <v>0.45840018336007332</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
         <v>0.47501425042751283</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -725,10 +725,10 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,10 +737,10 @@
         <v>0.46816479400749061</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>0.47001316036849028</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -938,27 +938,51 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" ref="B27" si="5">(A$8+A$9)*A$10</f>
+        <v>3692000</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27" si="6">0.09*B27</f>
+        <v>332280</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27" si="7">-PV(A$11,A$5,C27)+B27</f>
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" ref="E27" si="8">-PMT(A$11,A$5,D27)</f>
+        <v>826560.45590642723</v>
+      </c>
+      <c r="F27">
+        <f>A$3*A$4*A$6*A$7*A$18</f>
+        <v>70080000</v>
+      </c>
+      <c r="G27" s="5">
+        <f>E27/F27</f>
+        <v>1.1794527053459293E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
         <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -997,11 +1021,11 @@
         <v>63</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E34" si="5">(B31)/(D31*1000000*100)</f>
+        <f t="shared" ref="E31:E34" si="9">(B31)/(D31*1000000*100)</f>
         <v>0.43809523809523809</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" ref="F31:F33" si="6">(C31)/(D31*1000000*100)</f>
+        <f t="shared" ref="F31:F33" si="10">(C31)/(D31*1000000*100)</f>
         <v>0.14301587301587301</v>
       </c>
     </row>
@@ -1019,11 +1043,11 @@
         <v>294</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.1598639455782313</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.11326530612244898</v>
       </c>
     </row>
@@ -1041,11 +1065,11 @@
         <v>294</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.1598639455782313</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.11326530612244898</v>
       </c>
     </row>
@@ -1054,10 +1078,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1079,19 +1103,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
       </c>
       <c r="G1">
         <v>1975</v>
@@ -1153,10 +1177,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421749A2-B851-4DF0-9F25-9FA2E26AC9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE40A35-7B97-4C88-9F5C-660A6E8026FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,21 +90,6 @@
     <t>tons feedstock/hr</t>
   </si>
   <si>
-    <t>beef biooil yield</t>
-  </si>
-  <si>
-    <t>dairy biooil yield</t>
-  </si>
-  <si>
-    <t>goat biooil yield</t>
-  </si>
-  <si>
-    <t>pork biooil yield</t>
-  </si>
-  <si>
-    <t>poultry biooil yield</t>
-  </si>
-  <si>
     <t>Avoided C</t>
   </si>
   <si>
@@ -206,13 +191,28 @@
     <t>interest rate</t>
   </si>
   <si>
-    <t>Production estimates (kg per year)</t>
-  </si>
-  <si>
-    <t>Unit cost  ($1975/kg input)</t>
-  </si>
-  <si>
     <t>manure</t>
+  </si>
+  <si>
+    <t>Production estimates (kg biochar per year)</t>
+  </si>
+  <si>
+    <t>Unit cost  ($1975/kg biochar)</t>
+  </si>
+  <si>
+    <t>beef biochar yield</t>
+  </si>
+  <si>
+    <t>goat biochar yield</t>
+  </si>
+  <si>
+    <t>pork biochar yield</t>
+  </si>
+  <si>
+    <t>poultry biochar yield</t>
+  </si>
+  <si>
+    <t>dairy biochar yield</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,15 +583,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,10 +610,10 @@
         <v>0.8</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +621,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -643,7 +643,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,10 +651,10 @@
         <v>3600000</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,10 +662,10 @@
         <v>10600000</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>0.26</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>0.12</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>0.09</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -701,7 +701,7 @@
         <v>0.45840018336007332</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -713,7 +713,7 @@
         <v>0.47501425042751283</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -725,7 +725,7 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -737,7 +737,7 @@
         <v>0.46816479400749061</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -749,7 +749,7 @@
         <v>0.47001316036849028</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -780,10 +780,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>32124684.849873938</v>
       </c>
       <c r="G22" s="5">
-        <f>E22/F22</f>
+        <f t="shared" ref="G22:G27" si="0">E22/F22</f>
         <v>2.5729760767121451E-2</v>
       </c>
       <c r="I22" s="8"/>
@@ -821,15 +821,15 @@
         <v>7</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" ref="B23:B26" si="0">(A$8+A$9)*A$10</f>
+        <f t="shared" ref="B23:B26" si="1">(A$8+A$9)*A$10</f>
         <v>3692000</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" ref="C23:C26" si="1">0.09*B23</f>
+        <f t="shared" ref="C23:C26" si="2">0.09*B23</f>
         <v>332280</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:D26" si="2">-PV(A$11,A$5,C23)+B23</f>
+        <f t="shared" ref="D23:D26" si="3">-PV(A$11,A$5,C23)+B23</f>
         <v>6173946.7274915744</v>
       </c>
       <c r="E23" s="4">
@@ -841,7 +841,7 @@
         <v>33288998.6699601</v>
       </c>
       <c r="G23" s="5">
-        <f>E23/F23</f>
+        <f t="shared" si="0"/>
         <v>2.4829838352942502E-2</v>
       </c>
       <c r="I23" s="8"/>
@@ -851,27 +851,27 @@
         <v>8</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3692000</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>332280</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6173946.7274915744</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24:E26" si="3">-PMT(A$11,A$5,D24)</f>
+        <f t="shared" ref="E24:E26" si="4">-PMT(A$11,A$5,D24)</f>
         <v>826560.45590642723</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F26" si="4">A$3*A$4*A$6*A$7*A15*A$18</f>
+        <f t="shared" ref="F24:F26" si="5">A$3*A$4*A$6*A$7*A15*A$18</f>
         <v>34102189.781021893</v>
       </c>
       <c r="G24" s="5">
-        <f>E24/F24</f>
+        <f t="shared" si="0"/>
         <v>2.4237753094858851E-2</v>
       </c>
       <c r="I24" s="8"/>
@@ -881,27 +881,27 @@
         <v>9</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3692000</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>332280</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6173946.7274915744</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>826560.45590642723</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32808988.764044944</v>
       </c>
       <c r="G25" s="5">
-        <f>E25/F25</f>
+        <f t="shared" si="0"/>
         <v>2.519310978618905E-2</v>
       </c>
       <c r="I25" s="8"/>
@@ -911,49 +911,49 @@
         <v>10</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3692000</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>332280</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6173946.7274915744</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>826560.45590642723</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32938522.278623801</v>
       </c>
       <c r="G26" s="5">
-        <f>E26/F26</f>
+        <f t="shared" si="0"/>
         <v>2.5094035758939991E-2</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27" si="5">(A$8+A$9)*A$10</f>
+        <f t="shared" ref="B27" si="6">(A$8+A$9)*A$10</f>
         <v>3692000</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27" si="6">0.09*B27</f>
+        <f t="shared" ref="C27" si="7">0.09*B27</f>
         <v>332280</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" ref="D27" si="7">-PV(A$11,A$5,C27)+B27</f>
+        <f t="shared" ref="D27" si="8">-PV(A$11,A$5,C27)+B27</f>
         <v>6173946.7274915744</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ref="E27" si="8">-PMT(A$11,A$5,D27)</f>
+        <f t="shared" ref="E27" si="9">-PMT(A$11,A$5,D27)</f>
         <v>826560.45590642723</v>
       </c>
       <c r="F27">
@@ -961,28 +961,28 @@
         <v>70080000</v>
       </c>
       <c r="G27" s="5">
-        <f>E27/F27</f>
+        <f t="shared" si="0"/>
         <v>1.1794527053459293E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,11 +1021,11 @@
         <v>63</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E34" si="9">(B31)/(D31*1000000*100)</f>
+        <f t="shared" ref="E31:E34" si="10">(B31)/(D31*1000000*100)</f>
         <v>0.43809523809523809</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" ref="F31:F33" si="10">(C31)/(D31*1000000*100)</f>
+        <f t="shared" ref="F31:F33" si="11">(C31)/(D31*1000000*100)</f>
         <v>0.14301587301587301</v>
       </c>
     </row>
@@ -1043,11 +1043,11 @@
         <v>294</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1598639455782313</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11326530612244898</v>
       </c>
     </row>
@@ -1065,11 +1065,11 @@
         <v>294</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1598639455782313</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11326530612244898</v>
       </c>
     </row>
@@ -1078,10 +1078,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E34" s="3" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1103,19 +1103,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G1">
         <v>1975</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>0</v>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\ManurePyrolysisIAM\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE40A35-7B97-4C88-9F5C-660A6E8026FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8811E76-C835-41D8-9B1A-3925B0D17895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1238" yWindow="-98" windowWidth="27660" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t>CAPEX</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>dairy biochar yield</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -299,6 +302,951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gompertz!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>gompertz!$J$1:$Q$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>gompertz!$J$8:$Q$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2660705161650211E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14785645449252985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57830275373899231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85478391498495299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95604099426180822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98720291224657675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99631671110435605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A8E-4F6D-AF09-3B793AF636F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1551928239"/>
+        <c:axId val="1551932559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1551928239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1551932559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1551932559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1551928239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B22D6F-C7BA-84ED-0F23-4BAFC02D1C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,27 +1514,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -594,7 +1542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10</v>
       </c>
@@ -605,7 +1553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>0.8</v>
       </c>
@@ -616,7 +1564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>20</v>
       </c>
@@ -627,7 +1575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>365</v>
       </c>
@@ -638,7 +1586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>24</v>
       </c>
@@ -646,7 +1594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3600000</v>
       </c>
@@ -657,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10600000</v>
       </c>
@@ -668,7 +1616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.26</v>
       </c>
@@ -676,7 +1624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>0.12</v>
       </c>
@@ -684,7 +1632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>0.09</v>
       </c>
@@ -695,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <f>1/2.1815</f>
         <v>0.45840018336007332</v>
@@ -707,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f>1/2.1052</f>
         <v>0.47501425042751283</v>
@@ -719,7 +1667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f>1/2.055</f>
         <v>0.48661800486618001</v>
@@ -731,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <f>1/2.136</f>
         <v>0.46816479400749061</v>
@@ -743,7 +1691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <f>1/2.1276</f>
         <v>0.47001316036849028</v>
@@ -755,7 +1703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>1000</v>
       </c>
@@ -763,10 +1711,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -786,7 +1734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -816,7 +1764,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -846,7 +1794,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -876,7 +1824,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -906,7 +1854,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -936,7 +1884,7 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
@@ -965,7 +1913,7 @@
         <v>1.1794527053459293E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -985,7 +1933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1955,7 @@
         <v>0.13085106382978723</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1029,7 +1977,7 @@
         <v>0.14301587301587301</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1999,7 @@
         <v>0.11326530612244898</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +2021,7 @@
         <v>0.11326530612244898</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1095,13 +2043,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248186C2-819E-40A3-BDA6-AECDD5B5B57C}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +2123,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="E2" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +2188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:Y7" si="0">IF($B3*EXP(-$C3*EXP(-$D3*(I$1-$E3))) &lt; 0.001, 0, $B3*EXP(-$C3*EXP(-$D3*(I$1-$E3))))</f>
+        <f t="shared" ref="I3:Y8" si="0">IF($B3*EXP(-$C3*EXP(-$D3*(I$1-$E3))) &lt; 0.001, 0, $B3*EXP(-$C3*EXP(-$D3*(I$1-$E3))))</f>
         <v>0</v>
       </c>
       <c r="J3">
@@ -1333,7 +2281,7 @@
         <v>2.5889995662654433</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1350,7 +2298,7 @@
         <v>2028</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:V7" si="1">IF($B4*EXP(-$C4*EXP(-$D4*(G$1-$E4))) &lt; 0.001, 0, $B4*EXP(-$C4*EXP(-$D4*(G$1-$E4))))</f>
+        <f t="shared" ref="G4:V8" si="1">IF($B4*EXP(-$C4*EXP(-$D4*(G$1-$E4))) &lt; 0.001, 0, $B4*EXP(-$C4*EXP(-$D4*(G$1-$E4))))</f>
         <v>0</v>
       </c>
       <c r="H4">
@@ -1426,7 +2374,7 @@
         <v>0.45359192400983966</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1519,7 +2467,7 @@
         <v>3.1009994804902044</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +2560,7 @@
         <v>0.30399994907095201</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1705,19 +2653,112 @@
         <v>1.3809997686413971</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>2028</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.2660705161650211E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.14785645449252985</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.57830275373899231</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.85478391498495299</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.95604099426180822</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0.98720291224657675</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0.99631671110435605</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.99894333049613171</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.99969714492701189</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0.99991322119239934</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0.99997513668562055</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>0.99999287647797896</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>0.99999795907158384</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0.99999941526379299</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>0.99999983247023683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G9">
         <f>-$C3*EXP(-$D3*G$1-$E3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G10">
         <f>EXP(-$D3*G$1-$E3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G11">
         <f>-$D3*G$1-$E3</f>
         <v>-2521.75</v>
@@ -1725,5 +2766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE40A35-7B97-4C88-9F5C-660A6E8026FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFCC6A-368D-4EA8-8464-33FBA58656B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G4" sqref="G4:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.453592</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -1371,59 +1371,59 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>6.7066504906175592E-2</v>
+        <v>2.6614161808655372E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>0.26231350267397702</v>
+        <v>1.0409449567301861E-2</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>0.3877231455658548</v>
+        <v>1.5386110469729153E-2</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>0.43365254666920211</v>
+        <v>1.7208737896712546E-2</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>0.44778734337174925</v>
+        <v>1.7769652420438379E-2</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>0.45192128962324707</v>
+        <v>1.7933700799878407E-2</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>0.45311270316640134</v>
+        <v>1.7980979948930369E-2</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>0.4534546273617332</v>
+        <v>1.7994548608686212E-2</v>
       </c>
       <c r="T4">
         <f t="shared" si="1"/>
-        <v>0.45355263782710281</v>
+        <v>1.7998437981463188E-2</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>0.45358072219950402</v>
+        <v>1.799955246034117E-2</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>0.4535887688273994</v>
+        <v>1.7999871776603619E-2</v>
       </c>
       <c r="W4">
         <f t="shared" si="0"/>
-        <v>0.45359107425119788</v>
+        <v>1.7999963263288506E-2</v>
       </c>
       <c r="X4">
         <f t="shared" si="0"/>
-        <v>0.45359173476833436</v>
+        <v>1.7999989474748273E-2</v>
       </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>0.45359192400983966</v>
+        <v>1.7999996984464261E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFCC6A-368D-4EA8-8464-33FBA58656B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200054FD-E48C-49F9-81CE-67F5B0DA27DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -566,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248186C2-819E-40A3-BDA6-AECDD5B5B57C}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G3">
         <f>IF($B3*EXP(-$C3*EXP(-$D3*(G$1-$E3))) &lt; 0.001, 0, $B3*EXP(-$C3*EXP(-$D3*(G$1-$E3))))</f>
@@ -1274,63 +1274,63 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>3.2778565663512398E-3</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>0.38280036068115975</v>
+        <v>4.5256808678761008E-2</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
+        <v>0.58425577868748124</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
         <v>1.4972258294302512</v>
       </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>2.2130355558960431</v>
-      </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>2.4751901341438214</v>
+        <v>2.1165759668119466</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
-        <v>2.5558683398063873</v>
+        <v>2.4040487226177558</v>
       </c>
       <c r="Q3">
         <f t="shared" si="0"/>
+        <v>2.5193613247103341</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>2.5631603251914576</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
         <v>2.579463965049178</v>
       </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>2.586264282654485</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>2.5882159082160339</v>
-      </c>
       <c r="T3">
         <f t="shared" si="0"/>
-        <v>2.5887753296671216</v>
+        <v>2.5854877966505807</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
+        <v>2.5877073781943247</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>2.5885243959532129</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>2.5888250248894193</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
         <v>2.5889356288790717</v>
       </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>2.5889815572014876</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>2.5889947160363307</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>2.5889984861179602</v>
-      </c>
       <c r="Y3">
         <f t="shared" si="0"/>
-        <v>2.5889995662654433</v>
+        <v>2.5889763190019117</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1344,10 +1344,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:V7" si="1">IF($B4*EXP(-$C4*EXP(-$D4*(G$1-$E4))) &lt; 0.001, 0, $B4*EXP(-$C4*EXP(-$D4*(G$1-$E4))))</f>
@@ -1371,59 +1371,59 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>2.6614161808655372E-3</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
+        <v>4.0620332237831834E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
         <v>1.0409449567301861E-2</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>1.5386110469729153E-2</v>
-      </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>1.7208737896712546E-2</v>
+        <v>1.471547601491504E-2</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>1.7769652420438379E-2</v>
+        <v>1.6714127851340133E-2</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
+        <v>1.7515837715251451E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>1.7820349885456253E-2</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
         <v>1.7933700799878407E-2</v>
       </c>
-      <c r="R4">
-        <f t="shared" si="1"/>
-        <v>1.7980979948930369E-2</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>1.7994548608686212E-2</v>
-      </c>
       <c r="T4">
         <f t="shared" si="1"/>
-        <v>1.7998437981463188E-2</v>
+        <v>1.7975581436736367E-2</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
+        <v>1.799101305812972E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>1.7996693366998003E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>1.7998783487064327E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
         <v>1.799955246034117E-2</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="1"/>
-        <v>1.7999871776603619E-2</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
-        <v>1.7999963263288506E-2</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="0"/>
-        <v>1.7999989474748273E-2</v>
-      </c>
       <c r="Y4">
         <f t="shared" si="0"/>
-        <v>1.7999996984464261E-2</v>
+        <v>1.7999835358066592E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1437,10 +1437,10 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E5">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -1460,63 +1460,63 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3.9260846706277303E-3</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.45850286538133506</v>
+        <v>5.4206783975603662E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
+        <v>0.69979805705286957</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
         <v>1.7933168393446151</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>2.6506849203683394</v>
-      </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>2.9646831232058672</v>
+        <v>2.5351495067917522</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>3.0613162308766344</v>
+        <v>2.8794728037225417</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
+        <v>3.0175895974997089</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>3.07005027748888</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
         <v>3.0895781211346081</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>3.0977232678685045</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>3.1000608464186636</v>
-      </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>3.1007308989176305</v>
+        <v>3.0967932241844154</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
+        <v>3.0994517496255702</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>3.1004303406144897</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>3.1007904218548048</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
         <v>3.1009228988621094</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>3.1009779099582127</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>3.1009936710809813</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>3.1009981867330221</v>
-      </c>
       <c r="Y5">
         <f t="shared" si="0"/>
-        <v>3.1009994804902044</v>
+        <v>3.1009716358535835</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1530,10 +1530,10 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -1557,59 +1557,59 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>4.4948362165729075E-2</v>
+        <v>5.314047832500327E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
+        <v>6.8603227779449327E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
         <v>0.17580403713665366</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.25985431015542571</v>
-      </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0.2906364622555897</v>
+        <v>0.24852803936300957</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>0.30010968532295934</v>
+        <v>0.28228304815596666</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
+        <v>0.29582303696869122</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.30096590917659449</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
         <v>0.30288028017572421</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>0.30367877247082403</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0.30390793205781158</v>
-      </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0.30397361924248939</v>
+        <v>0.30358759759821419</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
+        <v>0.30384822053730193</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0.30394415464263297</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0.30397945444819757</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
         <v>0.30399244155242866</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0.30399783444930562</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="0"/>
-        <v>0.30399937955776146</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="0"/>
-        <v>0.30399982224019306</v>
-      </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0.30399994907095201</v>
+        <v>0.30399721938068025</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -1646,63 +1646,63 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.7484433828238942E-3</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.20418976365418373</v>
+        <v>2.4140460712772868E-2</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
+        <v>0.31164821566914319</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
         <v>0.79863610291354836</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>1.18045658659422</v>
-      </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1.3202926130755572</v>
+        <v>1.1290040209220928</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.3633272218125225</v>
+        <v>1.2823450312611513</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
+        <v>1.3438539935979033</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>1.367216843989727</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
         <v>1.3759133780351156</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>1.379540739415158</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>1.3805817571442034</v>
-      </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>1.3808801584667034</v>
+        <v>1.3791265535629402</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
+        <v>1.3803105018487303</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>1.3807463077680135</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>1.3809066664242133</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
         <v>1.380965663762842</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>1.380990162416089</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="0"/>
-        <v>1.3809971814778572</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="0"/>
-        <v>1.3809991924792981</v>
-      </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>1.3809997686413971</v>
+        <v>1.380987368304998</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G11">
         <f>-$D3*G$1-$E3</f>
-        <v>-2521.75</v>
+        <v>-2425</v>
       </c>
     </row>
   </sheetData>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200054FD-E48C-49F9-81CE-67F5B0DA27DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B9AB2-B193-4427-9593-8929AD134FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>CAPEX</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>dairy biochar yield</t>
+  </si>
+  <si>
+    <t>Only OPEX costs (test for costs by tech)</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>To EUAW</t>
+  </si>
+  <si>
+    <t>Production Estimate</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
   </si>
 </sst>
 </file>
@@ -271,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,6 +298,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -564,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +595,9 @@
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>1/2.1276</f>
         <v>0.47001316036849028</v>
@@ -755,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1000</v>
       </c>
@@ -763,10 +782,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -785,8 +804,23 @@
       <c r="G21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -815,21 +849,41 @@
         <v>2.5729760767121451E-2</v>
       </c>
       <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="11">
+        <f>C22</f>
+        <v>332280</v>
+      </c>
+      <c r="M22" s="4">
+        <f>-PV(A$11,A$5,C22)</f>
+        <v>2481946.7274915739</v>
+      </c>
+      <c r="N22" s="4">
+        <f>-PMT(A$11,A$5,M22)</f>
+        <v>332280.00000000006</v>
+      </c>
+      <c r="O22">
+        <f>F22</f>
+        <v>32124684.849873938</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" ref="P22:P26" si="1">N22/O22</f>
+        <v>1.0343447773972605E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" ref="B23:B26" si="1">(A$8+A$9)*A$10</f>
+        <f t="shared" ref="B23:B26" si="2">(A$8+A$9)*A$10</f>
         <v>3692000</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" ref="C23:C26" si="2">0.09*B23</f>
+        <f t="shared" ref="C23:C26" si="3">0.09*B23</f>
         <v>332280</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:D26" si="3">-PV(A$11,A$5,C23)+B23</f>
+        <f t="shared" ref="D23:D26" si="4">-PV(A$11,A$5,C23)+B23</f>
         <v>6173946.7274915744</v>
       </c>
       <c r="E23" s="4">
@@ -845,29 +899,49 @@
         <v>2.4829838352942502E-2</v>
       </c>
       <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="11">
+        <f t="shared" ref="L23:L26" si="5">C23</f>
+        <v>332280</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" ref="M23:M26" si="6">-PV(A$11,A$5,C23)</f>
+        <v>2481946.7274915739</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23:N26" si="7">-PMT(A$11,A$5,M23)</f>
+        <v>332280.00000000006</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O26" si="8">F23</f>
+        <v>33288998.6699601</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="1"/>
+        <v>9.9816760273972616E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3692000</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>332280</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6173946.7274915744</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24:E26" si="4">-PMT(A$11,A$5,D24)</f>
+        <f t="shared" ref="E24:E26" si="9">-PMT(A$11,A$5,D24)</f>
         <v>826560.45590642723</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F26" si="5">A$3*A$4*A$6*A$7*A15*A$18</f>
+        <f t="shared" ref="F24:F26" si="10">A$3*A$4*A$6*A$7*A15*A$18</f>
         <v>34102189.781021893</v>
       </c>
       <c r="G24" s="5">
@@ -875,85 +949,145 @@
         <v>2.4237753094858851E-2</v>
       </c>
       <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="11">
+        <f t="shared" si="5"/>
+        <v>332280</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="6"/>
+        <v>2481946.7274915739</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="7"/>
+        <v>332280.00000000006</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>34102189.781021893</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="1"/>
+        <v>9.743655821917812E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3692000</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>332280</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6173946.7274915744</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>826560.45590642723</v>
       </c>
       <c r="F25">
+        <f t="shared" si="10"/>
+        <v>32808988.764044944</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>2.519310978618905E-2</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="L25" s="11">
         <f t="shared" si="5"/>
+        <v>332280</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="6"/>
+        <v>2481946.7274915739</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="7"/>
+        <v>332280.00000000006</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
         <v>32808988.764044944</v>
       </c>
-      <c r="G25" s="5">
-        <f t="shared" si="0"/>
-        <v>2.519310978618905E-2</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0127712328767125E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3692000</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>332280</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6173946.7274915744</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>826560.45590642723</v>
       </c>
       <c r="F26">
+        <f t="shared" si="10"/>
+        <v>32938522.278623801</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5094035758939991E-2</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="L26" s="11">
         <f t="shared" si="5"/>
+        <v>332280</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="6"/>
+        <v>2481946.7274915739</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="7"/>
+        <v>332280.00000000006</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
         <v>32938522.278623801</v>
       </c>
-      <c r="G26" s="5">
-        <f t="shared" si="0"/>
-        <v>2.5094035758939991E-2</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P26" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0087884246575345E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" ref="B27" si="6">(A$8+A$9)*A$10</f>
+        <f t="shared" ref="B27" si="11">(A$8+A$9)*A$10</f>
         <v>3692000</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27" si="7">0.09*B27</f>
+        <f t="shared" ref="C27" si="12">0.09*B27</f>
         <v>332280</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" ref="D27" si="8">-PV(A$11,A$5,C27)+B27</f>
+        <f t="shared" ref="D27" si="13">-PV(A$11,A$5,C27)+B27</f>
         <v>6173946.7274915744</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ref="E27" si="9">-PMT(A$11,A$5,D27)</f>
+        <f t="shared" ref="E27" si="14">-PMT(A$11,A$5,D27)</f>
         <v>826560.45590642723</v>
       </c>
       <c r="F27">
@@ -965,7 +1099,7 @@
         <v>1.1794527053459293E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -985,7 +1119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1007,7 +1141,7 @@
         <v>0.13085106382978723</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1021,15 +1155,15 @@
         <v>63</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" ref="E31:E34" si="10">(B31)/(D31*1000000*100)</f>
+        <f t="shared" ref="E31:E34" si="15">(B31)/(D31*1000000*100)</f>
         <v>0.43809523809523809</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" ref="F31:F33" si="11">(C31)/(D31*1000000*100)</f>
+        <f t="shared" ref="F31:F33" si="16">(C31)/(D31*1000000*100)</f>
         <v>0.14301587301587301</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1043,11 +1177,11 @@
         <v>294</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.1598639455782313</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.11326530612244898</v>
       </c>
     </row>
@@ -1065,11 +1199,11 @@
         <v>294</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.1598639455782313</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>0.11326530612244898</v>
       </c>
     </row>
@@ -1081,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="3" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1095,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248186C2-819E-40A3-BDA6-AECDD5B5B57C}">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7:Y7"/>
     </sheetView>
   </sheetViews>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B9AB2-B193-4427-9593-8929AD134FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A904AF-6BD1-4DA3-B2B0-A29EE78E49DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/gcam/input/biochar_land_R/plant_costs.xlsx
+++ b/gcam/input/biochar_land_R/plant_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PycharmProjects\IAM\biochar\gcam\input\biochar_land_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A904AF-6BD1-4DA3-B2B0-A29EE78E49DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C234A4-BAF8-478A-9DCB-A74CBF860766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biochar_land" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>CAPEX</t>
   </si>
@@ -90,21 +90,6 @@
     <t>tons feedstock/hr</t>
   </si>
   <si>
-    <t>Avoided C</t>
-  </si>
-  <si>
-    <t>Sequestered C</t>
-  </si>
-  <si>
-    <t>Manure Supply</t>
-  </si>
-  <si>
-    <t>Woolf, D., Amonette, J. E., Street-Perrott, F. A., Lehmann, J. &amp; Joseph, S. Sustainable biochar to mitigate global climate change. Nat Commun 1, 56 (2010).</t>
-  </si>
-  <si>
-    <t>same as beef/dairy</t>
-  </si>
-  <si>
     <t>B_max</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
   </si>
   <si>
     <t>(4 years from 2024)</t>
-  </si>
-  <si>
-    <t>Sequestered C Ratio (Mg C/Mg Manure)</t>
   </si>
   <si>
     <t>TEA</t>
@@ -191,9 +173,6 @@
     <t>interest rate</t>
   </si>
   <si>
-    <t>manure</t>
-  </si>
-  <si>
     <t>Production estimates (kg biochar per year)</t>
   </si>
   <si>
@@ -213,21 +192,6 @@
   </si>
   <si>
     <t>dairy biochar yield</t>
-  </si>
-  <si>
-    <t>Only OPEX costs (test for costs by tech)</t>
-  </si>
-  <si>
-    <t>Total Costs</t>
-  </si>
-  <si>
-    <t>To EUAW</t>
-  </si>
-  <si>
-    <t>Production Estimate</t>
-  </si>
-  <si>
-    <t>Unit Cost</t>
   </si>
 </sst>
 </file>
@@ -582,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C229AC-139E-41F1-AA79-F61EE8EC5D09}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,15 +566,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,7 +585,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,10 +593,10 @@
         <v>0.8</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,10 +604,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,7 +615,7 @@
         <v>365</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -662,7 +626,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,10 +634,10 @@
         <v>3600000</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,10 +645,10 @@
         <v>10600000</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +656,7 @@
         <v>0.26</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +664,7 @@
         <v>0.12</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,7 +672,7 @@
         <v>0.09</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -720,7 +684,7 @@
         <v>0.45840018336007332</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -732,7 +696,7 @@
         <v>0.47501425042751283</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -744,7 +708,7 @@
         <v>0.48661800486618001</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -756,7 +720,7 @@
         <v>0.46816479400749061</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -768,7 +732,7 @@
         <v>0.47001316036849028</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -799,25 +763,10 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M21" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -849,41 +798,25 @@
         <v>2.5729760767121451E-2</v>
       </c>
       <c r="I22" s="8"/>
-      <c r="L22" s="11">
-        <f>C22</f>
-        <v>332280</v>
-      </c>
-      <c r="M22" s="4">
-        <f>-PV(A$11,A$5,C22)</f>
-        <v>2481946.7274915739</v>
-      </c>
-      <c r="N22" s="4">
-        <f>-PMT(A$11,A$5,M22)</f>
-        <v>332280.00000000006</v>
-      </c>
-      <c r="O22">
-        <f>F22</f>
-        <v>32124684.849873938</v>
-      </c>
-      <c r="P22" s="5">
-        <f t="shared" ref="P22:P26" si="1">N22/O22</f>
-        <v>1.0343447773972605E-2</v>
-      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" ref="B23:B26" si="2">(A$8+A$9)*A$10</f>
+        <f t="shared" ref="B23:B26" si="1">(A$8+A$9)*A$10</f>
         <v>3692000</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" ref="C23:C26" si="3">0.09*B23</f>
+        <f t="shared" ref="C23:C26" si="2">0.09*B23</f>
         <v>332280</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:D26" si="4">-PV(A$11,A$5,C23)+B23</f>
+        <f t="shared" ref="D23:D26" si="3">-PV(A$11,A$5,C23)+B23</f>
         <v>6173946.7274915744</v>
       </c>
       <c r="E23" s="4">
@@ -899,49 +832,33 @@
         <v>2.4829838352942502E-2</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="L23" s="11">
-        <f t="shared" ref="L23:L26" si="5">C23</f>
-        <v>332280</v>
-      </c>
-      <c r="M23" s="4">
-        <f t="shared" ref="M23:M26" si="6">-PV(A$11,A$5,C23)</f>
-        <v>2481946.7274915739</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" ref="N23:N26" si="7">-PMT(A$11,A$5,M23)</f>
-        <v>332280.00000000006</v>
-      </c>
-      <c r="O23">
-        <f t="shared" ref="O23:O26" si="8">F23</f>
-        <v>33288998.6699601</v>
-      </c>
-      <c r="P23" s="5">
-        <f t="shared" si="1"/>
-        <v>9.9816760273972616E-3</v>
-      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="10">
+        <f t="shared" si="1"/>
+        <v>3692000</v>
+      </c>
+      <c r="C24" s="10">
         <f t="shared" si="2"/>
-        <v>3692000</v>
-      </c>
-      <c r="C24" s="10">
+        <v>332280</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="3"/>
-        <v>332280</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="4"/>
         <v>6173946.7274915744</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" ref="E24:E26" si="9">-PMT(A$11,A$5,D24)</f>
+        <f t="shared" ref="E24:E26" si="4">-PMT(A$11,A$5,D24)</f>
         <v>826560.45590642723</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F26" si="10">A$3*A$4*A$6*A$7*A15*A$18</f>
+        <f t="shared" ref="F24:F26" si="5">A$3*A$4*A$6*A$7*A15*A$18</f>
         <v>34102189.781021893</v>
       </c>
       <c r="G24" s="5">
@@ -949,49 +866,33 @@
         <v>2.4237753094858851E-2</v>
       </c>
       <c r="I24" s="8"/>
-      <c r="L24" s="11">
-        <f t="shared" si="5"/>
-        <v>332280</v>
-      </c>
-      <c r="M24" s="4">
-        <f t="shared" si="6"/>
-        <v>2481946.7274915739</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="7"/>
-        <v>332280.00000000006</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="8"/>
-        <v>34102189.781021893</v>
-      </c>
-      <c r="P24" s="5">
-        <f t="shared" si="1"/>
-        <v>9.743655821917812E-3</v>
-      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="P24" s="5"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="10">
+        <f t="shared" si="1"/>
+        <v>3692000</v>
+      </c>
+      <c r="C25" s="10">
         <f t="shared" si="2"/>
-        <v>3692000</v>
-      </c>
-      <c r="C25" s="10">
+        <v>332280</v>
+      </c>
+      <c r="D25" s="4">
         <f t="shared" si="3"/>
-        <v>332280</v>
-      </c>
-      <c r="D25" s="4">
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E25" s="4">
         <f t="shared" si="4"/>
-        <v>6173946.7274915744</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="9"/>
         <v>826560.45590642723</v>
       </c>
       <c r="F25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>32808988.764044944</v>
       </c>
       <c r="G25" s="5">
@@ -999,49 +900,33 @@
         <v>2.519310978618905E-2</v>
       </c>
       <c r="I25" s="8"/>
-      <c r="L25" s="11">
-        <f t="shared" si="5"/>
-        <v>332280</v>
-      </c>
-      <c r="M25" s="4">
-        <f t="shared" si="6"/>
-        <v>2481946.7274915739</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="7"/>
-        <v>332280.00000000006</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="8"/>
-        <v>32808988.764044944</v>
-      </c>
-      <c r="P25" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0127712328767125E-2</v>
-      </c>
+      <c r="L25" s="11"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="10">
+        <f t="shared" si="1"/>
+        <v>3692000</v>
+      </c>
+      <c r="C26" s="10">
         <f t="shared" si="2"/>
-        <v>3692000</v>
-      </c>
-      <c r="C26" s="10">
+        <v>332280</v>
+      </c>
+      <c r="D26" s="4">
         <f t="shared" si="3"/>
-        <v>332280</v>
-      </c>
-      <c r="D26" s="4">
+        <v>6173946.7274915744</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="4"/>
-        <v>6173946.7274915744</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="9"/>
         <v>826560.45590642723</v>
       </c>
       <c r="F26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>32938522.278623801</v>
       </c>
       <c r="G26" s="5">
@@ -1049,175 +934,45 @@
         <v>2.5094035758939991E-2</v>
       </c>
       <c r="I26" s="8"/>
-      <c r="L26" s="11">
-        <f t="shared" si="5"/>
-        <v>332280</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="6"/>
-        <v>2481946.7274915739</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="7"/>
-        <v>332280.00000000006</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="8"/>
-        <v>32938522.278623801</v>
-      </c>
-      <c r="P26" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0087884246575345E-2</v>
-      </c>
+      <c r="L26" s="11"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="10">
-        <f t="shared" ref="B27" si="11">(A$8+A$9)*A$10</f>
-        <v>3692000</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" ref="C27" si="12">0.09*B27</f>
-        <v>332280</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" ref="D27" si="13">-PV(A$11,A$5,C27)+B27</f>
-        <v>6173946.7274915744</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" ref="E27" si="14">-PMT(A$11,A$5,D27)</f>
-        <v>826560.45590642723</v>
-      </c>
-      <c r="F27">
-        <f>A$3*A$4*A$6*A$7*A$18</f>
-        <v>70080000</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1794527053459293E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1630000000</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1230000000</v>
-      </c>
-      <c r="D30">
-        <v>94</v>
-      </c>
-      <c r="E30" s="9">
-        <f>(B30)/(D30*1000000*100)</f>
-        <v>0.17340425531914894</v>
-      </c>
-      <c r="F30" s="9">
-        <f>(C30)/(D30*1000000*100)</f>
-        <v>0.13085106382978723</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="7">
-        <v>2760000000</v>
-      </c>
-      <c r="C31" s="7">
-        <v>901000000</v>
-      </c>
-      <c r="D31">
-        <v>63</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" ref="E31:E34" si="15">(B31)/(D31*1000000*100)</f>
-        <v>0.43809523809523809</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" ref="F31:F33" si="16">(C31)/(D31*1000000*100)</f>
-        <v>0.14301587301587301</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="7">
-        <v>4700000000</v>
-      </c>
-      <c r="C32" s="7">
-        <v>3330000000</v>
-      </c>
-      <c r="D32">
-        <v>294</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="15"/>
-        <v>0.1598639455782313</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="16"/>
-        <v>0.11326530612244898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="7">
-        <v>4700000000</v>
-      </c>
-      <c r="C33" s="7">
-        <v>3330000000</v>
-      </c>
-      <c r="D33">
-        <v>294</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="15"/>
-        <v>0.1598639455782313</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="16"/>
-        <v>0.11326530612244898</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,19 +992,19 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G1">
         <v>1975</v>
@@ -1311,10 +1066,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>0</v>
